--- a/excel-converter/src/main/resources/РНПФ-01.xlsx
+++ b/excel-converter/src/main/resources/РНПФ-01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksandr.bogovich\Desktop\my staff\practice\converter-kotlin\excel-converter\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="РНПФ" sheetId="3" r:id="rId1"/>
     <sheet name="Лист1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>застрахованных лиц, суммы средств пенсионных накоплений которых переданы</t>
   </si>
@@ -183,12 +183,30 @@
   </si>
   <si>
     <t>ТЮМЕНЬ</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -530,6 +548,54 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -539,12 +605,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -553,48 +613,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -901,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE20"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -931,19 +949,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
@@ -956,12 +974,12 @@
       <c r="AB1" s="13"/>
     </row>
     <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
@@ -1011,26 +1029,26 @@
       <c r="AE3" s="2"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -1046,26 +1064,26 @@
       <c r="AE4" s="1"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -1081,26 +1099,26 @@
       <c r="AE5" s="2"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
@@ -1151,24 +1169,24 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1221,24 +1239,24 @@
       <c r="AE9" s="4"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -1291,24 +1309,24 @@
       <c r="AE11" s="3"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -1324,26 +1342,26 @@
       <c r="AE12" s="5"/>
     </row>
     <row r="13" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
@@ -1359,51 +1377,51 @@
       <c r="AE13" s="4"/>
     </row>
     <row r="14" spans="1:31" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="43" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="38" t="s">
+      <c r="I14" s="37"/>
+      <c r="J14" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="40" t="s">
+      <c r="K14" s="47"/>
+      <c r="L14" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="38" t="s">
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="43" t="s">
+      <c r="Q14" s="47"/>
+      <c r="R14" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="43" t="s">
+      <c r="S14" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="T14" s="43" t="s">
+      <c r="T14" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="U14" s="43" t="s">
+      <c r="U14" s="41" t="s">
         <v>30</v>
       </c>
       <c r="V14" s="16"/>
@@ -1415,15 +1433,15 @@
       <c r="AB14" s="16"/>
     </row>
     <row r="15" spans="1:31" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="51"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="20" t="s">
         <v>19</v>
       </c>
@@ -1448,10 +1466,10 @@
       <c r="Q15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
@@ -1464,11 +1482,11 @@
       <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="51">
         <v>2</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="6">
         <v>3</v>
       </c>
@@ -1478,10 +1496,10 @@
       <c r="G16" s="6">
         <v>5</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="55">
         <v>6</v>
       </c>
-      <c r="I16" s="42"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="6">
         <v>7</v>
       </c>
@@ -1819,8 +1837,59 @@
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
     </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H14:I15"/>
     <mergeCell ref="H1:R1"/>
@@ -1833,18 +1902,6 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A8:R8"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="B14:D15"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
